--- a/decision_tree_D.xlsx
+++ b/decision_tree_D.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -99,7 +99,70 @@
     <t>method</t>
   </si>
   <si>
-    <t>C</t>
+    <t>p2_obj</t>
+  </si>
+  <si>
+    <t>p2_gap</t>
+  </si>
+  <si>
+    <t>p2_dettime</t>
+  </si>
+  <si>
+    <t>p2_solve_time</t>
+  </si>
+  <si>
+    <t>p2_elapsed_time</t>
+  </si>
+  <si>
+    <t>p2_rtol</t>
+  </si>
+  <si>
+    <t>p2_term</t>
+  </si>
+  <si>
+    <t>p3_obj</t>
+  </si>
+  <si>
+    <t>p3_gap</t>
+  </si>
+  <si>
+    <t>p3_dettime</t>
+  </si>
+  <si>
+    <t>p3_solve_time</t>
+  </si>
+  <si>
+    <t>p3_elapsed_time</t>
+  </si>
+  <si>
+    <t>p3_rtol</t>
+  </si>
+  <si>
+    <t>p3_term</t>
+  </si>
+  <si>
+    <t>p4_obj</t>
+  </si>
+  <si>
+    <t>p4_gap</t>
+  </si>
+  <si>
+    <t>p4_dettime</t>
+  </si>
+  <si>
+    <t>p4_solve_time</t>
+  </si>
+  <si>
+    <t>p4_elapsed_time</t>
+  </si>
+  <si>
+    <t>p4_rtol</t>
+  </si>
+  <si>
+    <t>p4_term</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>TIME_LIMIT</t>
@@ -109,6 +172,9 @@
   </si>
   <si>
     <t>ssit</t>
+  </si>
+  <si>
+    <t>OPTIMAL</t>
   </si>
 </sst>
 </file>
@@ -460,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,16 +605,79 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:45">
       <c r="A2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -572,60 +701,81 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L2">
-        <v>-133802.0</v>
+        <v>11038.0</v>
       </c>
       <c r="M2">
-        <v>1.0893418327599558</v>
+        <v>0.13040716919203574</v>
       </c>
       <c r="N2">
-        <v>1.5715319170202255e7</v>
+        <v>3.9795864470558167e6</v>
       </c>
       <c r="O2">
-        <v>14400.001477956772</v>
+        <v>3600.0006539821625</v>
       </c>
       <c r="P2">
-        <v>14403.716650009155</v>
+        <v>3600.0033588409424</v>
       </c>
       <c r="Q2">
         <v>0.0001</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S2">
-        <v>14400.001477956772</v>
+        <v>3600.0006539821625</v>
       </c>
       <c r="T2">
-        <v>14403.716650009155</v>
+        <v>3600.0033588409424</v>
       </c>
       <c r="U2">
-        <v>1.5715319170202255e7</v>
+        <v>3.9795864470558167e6</v>
       </c>
       <c r="V2">
         <v>0.0001</v>
       </c>
       <c r="W2">
-        <v>1.0893418327599558</v>
+        <v>0.13040716919203574</v>
       </c>
       <c r="X2" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:45">
       <c r="A3">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0.25</v>
@@ -634,7 +784,7 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>30</v>
@@ -646,57 +796,78 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L3">
-        <v>7124.0</v>
+        <v>5340.0</v>
       </c>
       <c r="M3">
-        <v>0.1173333876241395</v>
+        <v>0.3081308497766775</v>
       </c>
       <c r="N3">
-        <v>1.5366452211873055e7</v>
+        <v>4.453348502968788e6</v>
       </c>
       <c r="O3">
-        <v>14400.000873088837</v>
+        <v>3600.0005719661713</v>
       </c>
       <c r="P3">
-        <v>14400.002873897552</v>
+        <v>3600.002835035324</v>
       </c>
       <c r="Q3">
         <v>0.0001</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="S3">
-        <v>14400.000873088837</v>
+        <v>3600.0005719661713</v>
       </c>
       <c r="T3">
-        <v>14400.002873897552</v>
+        <v>3600.002835035324</v>
       </c>
       <c r="U3">
-        <v>1.5366452211873055e7</v>
+        <v>4.453348502968788e6</v>
       </c>
       <c r="V3">
         <v>0.0001</v>
       </c>
       <c r="W3">
-        <v>0.1173333876241395</v>
+        <v>0.3081308497766775</v>
       </c>
       <c r="X3" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
+      <c r="AO3"/>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:45">
       <c r="A4">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -720,46 +891,6742 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>-225151.0</v>
+        <v>9203.0</v>
       </c>
       <c r="M4">
-        <v>1.0539617431258552</v>
+        <v>0.2995858760271883</v>
       </c>
       <c r="N4">
-        <v>4.821229723227501e6</v>
+        <v>4.3019073665037155e6</v>
       </c>
       <c r="O4">
-        <v>3600.0087780952454</v>
+        <v>3600.0005371570587</v>
       </c>
       <c r="P4">
-        <v>3603.391063928604</v>
+        <v>3600.0022189617157</v>
       </c>
       <c r="Q4">
+        <v>0.0001</v>
+      </c>
+      <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4">
+        <v>3600.0005371570587</v>
+      </c>
+      <c r="T4">
+        <v>3600.0022189617157</v>
+      </c>
+      <c r="U4">
+        <v>4.3019073665037155e6</v>
+      </c>
+      <c r="V4">
+        <v>0.0001</v>
+      </c>
+      <c r="W4">
+        <v>0.2995858760271883</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+    </row>
+    <row r="5" spans="1:45">
+      <c r="A5">
+        <v>552</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>2641.0</v>
+      </c>
+      <c r="M5">
+        <v>1.5971489683751021</v>
+      </c>
+      <c r="N5">
+        <v>4.443601324911118e6</v>
+      </c>
+      <c r="O5">
+        <v>3600.0005869865417</v>
+      </c>
+      <c r="P5">
+        <v>3600.0027401447296</v>
+      </c>
+      <c r="Q5">
+        <v>0.0001</v>
+      </c>
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5">
+        <v>3600.0005869865417</v>
+      </c>
+      <c r="T5">
+        <v>3600.0027401447296</v>
+      </c>
+      <c r="U5">
+        <v>4.443601324911118e6</v>
+      </c>
+      <c r="V5">
+        <v>0.0001</v>
+      </c>
+      <c r="W5">
+        <v>1.5971489683751021</v>
+      </c>
+      <c r="X5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5"/>
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+    </row>
+    <row r="6" spans="1:45">
+      <c r="A6">
+        <v>555</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>-48152.0</v>
+      </c>
+      <c r="M6">
+        <v>1.2525686308982247</v>
+      </c>
+      <c r="N6">
+        <v>4.390405310828209e6</v>
+      </c>
+      <c r="O6">
+        <v>3600.0003900527954</v>
+      </c>
+      <c r="P6">
+        <v>3600.0023980140686</v>
+      </c>
+      <c r="Q6">
+        <v>0.0001</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6">
+        <v>3600.0003900527954</v>
+      </c>
+      <c r="T6">
+        <v>3600.0023980140686</v>
+      </c>
+      <c r="U6">
+        <v>4.390405310828209e6</v>
+      </c>
+      <c r="V6">
+        <v>0.0001</v>
+      </c>
+      <c r="W6">
+        <v>1.2525686308982247</v>
+      </c>
+      <c r="X6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6"/>
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+    </row>
+    <row r="7" spans="1:45">
+      <c r="A7">
+        <v>558</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <v>-41465.0</v>
+      </c>
+      <c r="M7">
+        <v>1.1561644262257034</v>
+      </c>
+      <c r="N7">
+        <v>4.314348805673599e6</v>
+      </c>
+      <c r="O7">
+        <v>3600.000645160675</v>
+      </c>
+      <c r="P7">
+        <v>3600.003196954727</v>
+      </c>
+      <c r="Q7">
+        <v>0.0001</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7">
+        <v>3600.000645160675</v>
+      </c>
+      <c r="T7">
+        <v>3600.003196954727</v>
+      </c>
+      <c r="U7">
+        <v>4.314348805673599e6</v>
+      </c>
+      <c r="V7">
+        <v>0.0001</v>
+      </c>
+      <c r="W7">
+        <v>1.1561644262257034</v>
+      </c>
+      <c r="X7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8">
+        <v>561</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8">
+        <v>10606.0</v>
+      </c>
+      <c r="M8">
+        <v>0.21121410750327513</v>
+      </c>
+      <c r="N8">
+        <v>4.084263441680908e6</v>
+      </c>
+      <c r="O8">
+        <v>3600.0008730888367</v>
+      </c>
+      <c r="P8">
+        <v>3600.00350689888</v>
+      </c>
+      <c r="Q8">
+        <v>0.0001</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8">
+        <v>3600.0008730888367</v>
+      </c>
+      <c r="T8">
+        <v>3600.00350689888</v>
+      </c>
+      <c r="U8">
+        <v>4.084263441680908e6</v>
+      </c>
+      <c r="V8">
+        <v>0.0001</v>
+      </c>
+      <c r="W8">
+        <v>0.21121410750327513</v>
+      </c>
+      <c r="X8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9">
+        <v>564</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9">
+        <v>3961.0</v>
+      </c>
+      <c r="M9">
+        <v>0.7678495515710264</v>
+      </c>
+      <c r="N9">
+        <v>4.1781404008493423e6</v>
+      </c>
+      <c r="O9">
+        <v>3600.0006539821625</v>
+      </c>
+      <c r="P9">
+        <v>3600.0030620098114</v>
+      </c>
+      <c r="Q9">
+        <v>0.0001</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9">
+        <v>3600.0006539821625</v>
+      </c>
+      <c r="T9">
+        <v>3600.0030620098114</v>
+      </c>
+      <c r="U9">
+        <v>4.1781404008493423e6</v>
+      </c>
+      <c r="V9">
+        <v>0.0001</v>
+      </c>
+      <c r="W9">
+        <v>0.7678495515710264</v>
+      </c>
+      <c r="X9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+      <c r="AO9"/>
+      <c r="AP9"/>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10">
+        <v>567</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10">
+        <v>-335155.0</v>
+      </c>
+      <c r="M10">
+        <v>1.0361308380981615</v>
+      </c>
+      <c r="N10">
+        <v>4.413203167315483e6</v>
+      </c>
+      <c r="O10">
+        <v>3600.077633857727</v>
+      </c>
+      <c r="P10">
+        <v>3600.0802500247955</v>
+      </c>
+      <c r="Q10">
+        <v>0.0001</v>
+      </c>
+      <c r="R10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10">
+        <v>3600.077633857727</v>
+      </c>
+      <c r="T10">
+        <v>3600.0802500247955</v>
+      </c>
+      <c r="U10">
+        <v>4.413203167315483e6</v>
+      </c>
+      <c r="V10">
+        <v>0.0001</v>
+      </c>
+      <c r="W10">
+        <v>1.0361308380981615</v>
+      </c>
+      <c r="X10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+      <c r="AO10"/>
+      <c r="AP10"/>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11">
+        <v>570</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>-635259.0</v>
+      </c>
+      <c r="M11">
+        <v>1.0098400188767147</v>
+      </c>
+      <c r="N11">
+        <v>4.54839569244957e6</v>
+      </c>
+      <c r="O11">
+        <v>3600.000367164612</v>
+      </c>
+      <c r="P11">
+        <v>3600.0027420520782</v>
+      </c>
+      <c r="Q11">
+        <v>0.0001</v>
+      </c>
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11">
+        <v>3600.000367164612</v>
+      </c>
+      <c r="T11">
+        <v>3600.0027420520782</v>
+      </c>
+      <c r="U11">
+        <v>4.54839569244957e6</v>
+      </c>
+      <c r="V11">
+        <v>0.0001</v>
+      </c>
+      <c r="W11">
+        <v>1.0098400188767147</v>
+      </c>
+      <c r="X11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+      <c r="AO11"/>
+      <c r="AP11"/>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+    </row>
+    <row r="12" spans="1:45">
+      <c r="A12">
+        <v>573</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12">
+        <v>-91168.0</v>
+      </c>
+      <c r="M12">
+        <v>1.2698479631603237</v>
+      </c>
+      <c r="N12">
+        <v>4.264931839795113e6</v>
+      </c>
+      <c r="O12">
+        <v>3600.0007271766663</v>
+      </c>
+      <c r="P12">
+        <v>3600.0035438537598</v>
+      </c>
+      <c r="Q12">
+        <v>0.0001</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12">
+        <v>3600.0007271766663</v>
+      </c>
+      <c r="T12">
+        <v>3600.0035438537598</v>
+      </c>
+      <c r="U12">
+        <v>4.264931839795113e6</v>
+      </c>
+      <c r="V12">
+        <v>0.0001</v>
+      </c>
+      <c r="W12">
+        <v>1.2698479631603237</v>
+      </c>
+      <c r="X12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+    </row>
+    <row r="13" spans="1:45">
+      <c r="A13">
+        <v>576</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>10605.0</v>
+      </c>
+      <c r="M13">
+        <v>0.19665181976080903</v>
+      </c>
+      <c r="N13">
+        <v>4.186179703104019e6</v>
+      </c>
+      <c r="O13">
+        <v>3600.000622987747</v>
+      </c>
+      <c r="P13">
+        <v>3600.003457069397</v>
+      </c>
+      <c r="Q13">
+        <v>0.0001</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13">
+        <v>3600.000622987747</v>
+      </c>
+      <c r="T13">
+        <v>3600.003457069397</v>
+      </c>
+      <c r="U13">
+        <v>4.186179703104019e6</v>
+      </c>
+      <c r="V13">
+        <v>0.0001</v>
+      </c>
+      <c r="W13">
+        <v>0.19665181976080903</v>
+      </c>
+      <c r="X13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+    </row>
+    <row r="14" spans="1:45">
+      <c r="A14">
+        <v>579</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14">
+        <v>22179.0</v>
+      </c>
+      <c r="M14">
+        <v>0.055689766815370995</v>
+      </c>
+      <c r="N14">
+        <v>4.1445015086812973e6</v>
+      </c>
+      <c r="O14">
+        <v>3600.000622987747</v>
+      </c>
+      <c r="P14">
+        <v>3600.003352880478</v>
+      </c>
+      <c r="Q14">
+        <v>0.0001</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14">
+        <v>3600.000622987747</v>
+      </c>
+      <c r="T14">
+        <v>3600.003352880478</v>
+      </c>
+      <c r="U14">
+        <v>4.1445015086812973e6</v>
+      </c>
+      <c r="V14">
+        <v>0.0001</v>
+      </c>
+      <c r="W14">
+        <v>0.055689766815370995</v>
+      </c>
+      <c r="X14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+    </row>
+    <row r="15" spans="1:45">
+      <c r="A15">
+        <v>582</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15">
+        <v>9807.0</v>
+      </c>
+      <c r="M15">
+        <v>0.24171882981454743</v>
+      </c>
+      <c r="N15">
+        <v>4.364524388557434e6</v>
+      </c>
+      <c r="O15">
+        <v>3600.0005898475647</v>
+      </c>
+      <c r="P15">
+        <v>3600.0031991004944</v>
+      </c>
+      <c r="Q15">
+        <v>0.0001</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15">
+        <v>3600.0005898475647</v>
+      </c>
+      <c r="T15">
+        <v>3600.0031991004944</v>
+      </c>
+      <c r="U15">
+        <v>4.364524388557434e6</v>
+      </c>
+      <c r="V15">
+        <v>0.0001</v>
+      </c>
+      <c r="W15">
+        <v>0.24171882981454743</v>
+      </c>
+      <c r="X15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+    </row>
+    <row r="16" spans="1:45">
+      <c r="A16">
+        <v>585</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>22716.0</v>
+      </c>
+      <c r="M16">
+        <v>0.08234549642888664</v>
+      </c>
+      <c r="N16">
+        <v>3.948207366780281e6</v>
+      </c>
+      <c r="O16">
+        <v>3600.000629901886</v>
+      </c>
+      <c r="P16">
+        <v>3600.0032880306244</v>
+      </c>
+      <c r="Q16">
+        <v>0.0001</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <v>3600.000629901886</v>
+      </c>
+      <c r="T16">
+        <v>3600.0032880306244</v>
+      </c>
+      <c r="U16">
+        <v>3.948207366780281e6</v>
+      </c>
+      <c r="V16">
+        <v>0.0001</v>
+      </c>
+      <c r="W16">
+        <v>0.08234549642888664</v>
+      </c>
+      <c r="X16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+    </row>
+    <row r="17" spans="1:45">
+      <c r="A17">
+        <v>588</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <v>10549.0</v>
+      </c>
+      <c r="M17">
+        <v>0.20295421281645848</v>
+      </c>
+      <c r="N17">
+        <v>3.9822614375629425e6</v>
+      </c>
+      <c r="O17">
+        <v>3600.000675201416</v>
+      </c>
+      <c r="P17">
+        <v>3600.0033020973206</v>
+      </c>
+      <c r="Q17">
+        <v>0.0001</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>3600.000675201416</v>
+      </c>
+      <c r="T17">
+        <v>3600.0033020973206</v>
+      </c>
+      <c r="U17">
+        <v>3.9822614375629425e6</v>
+      </c>
+      <c r="V17">
+        <v>0.0001</v>
+      </c>
+      <c r="W17">
+        <v>0.20295421281645848</v>
+      </c>
+      <c r="X17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+    </row>
+    <row r="18" spans="1:45">
+      <c r="A18">
+        <v>591</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18">
+        <v>22044.0</v>
+      </c>
+      <c r="M18">
+        <v>0.09984343348864885</v>
+      </c>
+      <c r="N18">
+        <v>4.1408820067443848e6</v>
+      </c>
+      <c r="O18">
+        <v>3600.000611782074</v>
+      </c>
+      <c r="P18">
+        <v>3600.0033938884735</v>
+      </c>
+      <c r="Q18">
+        <v>0.0001</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18">
+        <v>3600.000611782074</v>
+      </c>
+      <c r="T18">
+        <v>3600.0033938884735</v>
+      </c>
+      <c r="U18">
+        <v>4.1408820067443848e6</v>
+      </c>
+      <c r="V18">
+        <v>0.0001</v>
+      </c>
+      <c r="W18">
+        <v>0.09984343348864885</v>
+      </c>
+      <c r="X18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+    </row>
+    <row r="19" spans="1:45">
+      <c r="A19">
+        <v>594</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19">
+        <v>10081.0</v>
+      </c>
+      <c r="M19">
+        <v>0.257110116038197</v>
+      </c>
+      <c r="N19">
+        <v>4.088024159016609e6</v>
+      </c>
+      <c r="O19">
+        <v>3600.000787973404</v>
+      </c>
+      <c r="P19">
+        <v>3600.003369808197</v>
+      </c>
+      <c r="Q19">
+        <v>0.0001</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19">
+        <v>3600.000787973404</v>
+      </c>
+      <c r="T19">
+        <v>3600.003369808197</v>
+      </c>
+      <c r="U19">
+        <v>4.088024159016609e6</v>
+      </c>
+      <c r="V19">
+        <v>0.0001</v>
+      </c>
+      <c r="W19">
+        <v>0.257110116038197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+    </row>
+    <row r="20" spans="1:45">
+      <c r="A20">
+        <v>597</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>24084.0</v>
+      </c>
+      <c r="M20">
+        <v>0.061832863345629756</v>
+      </c>
+      <c r="N20">
+        <v>3.8978163364048004e6</v>
+      </c>
+      <c r="O20">
+        <v>3600.0006828308105</v>
+      </c>
+      <c r="P20">
+        <v>3600.0033111572266</v>
+      </c>
+      <c r="Q20">
+        <v>0.0001</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20">
+        <v>3600.0006828308105</v>
+      </c>
+      <c r="T20">
+        <v>3600.0033111572266</v>
+      </c>
+      <c r="U20">
+        <v>3.8978163364048004e6</v>
+      </c>
+      <c r="V20">
+        <v>0.0001</v>
+      </c>
+      <c r="W20">
+        <v>0.061832863345629756</v>
+      </c>
+      <c r="X20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+    </row>
+    <row r="21" spans="1:45">
+      <c r="A21">
+        <v>600</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21">
+        <v>9944.0</v>
+      </c>
+      <c r="M21">
+        <v>0.20400996139351102</v>
+      </c>
+      <c r="N21">
+        <v>4.1501585963716507e6</v>
+      </c>
+      <c r="O21">
+        <v>3600.151647090912</v>
+      </c>
+      <c r="P21">
+        <v>3600.1543781757355</v>
+      </c>
+      <c r="Q21">
+        <v>0.0001</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21">
+        <v>3600.151647090912</v>
+      </c>
+      <c r="T21">
+        <v>3600.1543781757355</v>
+      </c>
+      <c r="U21">
+        <v>4.1501585963716507e6</v>
+      </c>
+      <c r="V21">
+        <v>0.0001</v>
+      </c>
+      <c r="W21">
+        <v>0.20400996139351102</v>
+      </c>
+      <c r="X21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+    </row>
+    <row r="22" spans="1:45">
+      <c r="A22">
+        <v>603</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22">
+        <v>-483094.0</v>
+      </c>
+      <c r="M22">
+        <v>1.0737966038376021</v>
+      </c>
+      <c r="N22">
+        <v>4.650642228735924e6</v>
+      </c>
+      <c r="O22">
+        <v>3600.000946044922</v>
+      </c>
+      <c r="P22">
+        <v>3600.0035219192505</v>
+      </c>
+      <c r="Q22">
+        <v>0.0001</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22">
+        <v>3600.000946044922</v>
+      </c>
+      <c r="T22">
+        <v>3600.0035219192505</v>
+      </c>
+      <c r="U22">
+        <v>4.650642228735924e6</v>
+      </c>
+      <c r="V22">
+        <v>0.0001</v>
+      </c>
+      <c r="W22">
+        <v>1.0737966038376021</v>
+      </c>
+      <c r="X22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+    </row>
+    <row r="23" spans="1:45">
+      <c r="A23">
+        <v>606</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0.75</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23">
+        <v>-66913.0</v>
+      </c>
+      <c r="M23">
+        <v>1.2070305100569811</v>
+      </c>
+      <c r="N23">
+        <v>4.660047480240822e6</v>
+      </c>
+      <c r="O23">
+        <v>3600.0003530979156</v>
+      </c>
+      <c r="P23">
+        <v>3600.0031468868256</v>
+      </c>
+      <c r="Q23">
+        <v>0.0001</v>
+      </c>
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23">
+        <v>3600.0003530979156</v>
+      </c>
+      <c r="T23">
+        <v>3600.0031468868256</v>
+      </c>
+      <c r="U23">
+        <v>4.660047480240822e6</v>
+      </c>
+      <c r="V23">
+        <v>0.0001</v>
+      </c>
+      <c r="W23">
+        <v>1.2070305100569811</v>
+      </c>
+      <c r="X23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+    </row>
+    <row r="24" spans="1:45">
+      <c r="A24">
+        <v>609</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0.75</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <v>32215.0</v>
+      </c>
+      <c r="M24">
+        <v>0.05007434051860122</v>
+      </c>
+      <c r="N24">
+        <v>4.442609938744545e6</v>
+      </c>
+      <c r="O24">
+        <v>3600.1597740650177</v>
+      </c>
+      <c r="P24">
+        <v>3600.1621010303497</v>
+      </c>
+      <c r="Q24">
+        <v>0.0001</v>
+      </c>
+      <c r="R24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24">
+        <v>3600.1597740650177</v>
+      </c>
+      <c r="T24">
+        <v>3600.1621010303497</v>
+      </c>
+      <c r="U24">
+        <v>4.442609938744545e6</v>
+      </c>
+      <c r="V24">
+        <v>0.0001</v>
+      </c>
+      <c r="W24">
+        <v>0.05007434051860122</v>
+      </c>
+      <c r="X24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+    </row>
+    <row r="25" spans="1:45">
+      <c r="A25">
+        <v>612</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0.75</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25">
+        <v>11070.0</v>
+      </c>
+      <c r="M25">
+        <v>0.29644994066729846</v>
+      </c>
+      <c r="N25">
+        <v>4.360870923172951e6</v>
+      </c>
+      <c r="O25">
+        <v>3600.000597000122</v>
+      </c>
+      <c r="P25">
+        <v>3600.0017561912537</v>
+      </c>
+      <c r="Q25">
+        <v>0.0001</v>
+      </c>
+      <c r="R25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25">
+        <v>3600.000597000122</v>
+      </c>
+      <c r="T25">
+        <v>3600.0017561912537</v>
+      </c>
+      <c r="U25">
+        <v>4.360870923172951e6</v>
+      </c>
+      <c r="V25">
+        <v>0.0001</v>
+      </c>
+      <c r="W25">
+        <v>0.29644994066729846</v>
+      </c>
+      <c r="X25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+    </row>
+    <row r="26" spans="1:45">
+      <c r="A26">
+        <v>615</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26">
+        <v>31459.0</v>
+      </c>
+      <c r="M26">
+        <v>0.07951674607254464</v>
+      </c>
+      <c r="N26">
+        <v>4.299208638786316e6</v>
+      </c>
+      <c r="O26">
+        <v>3600.0004749298096</v>
+      </c>
+      <c r="P26">
+        <v>3600.0031158924103</v>
+      </c>
+      <c r="Q26">
+        <v>0.0001</v>
+      </c>
+      <c r="R26" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26">
+        <v>3600.0004749298096</v>
+      </c>
+      <c r="T26">
+        <v>3600.0031158924103</v>
+      </c>
+      <c r="U26">
+        <v>4.299208638786316e6</v>
+      </c>
+      <c r="V26">
+        <v>0.0001</v>
+      </c>
+      <c r="W26">
+        <v>0.07951674607254464</v>
+      </c>
+      <c r="X26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+    </row>
+    <row r="27" spans="1:45">
+      <c r="A27">
+        <v>618</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27">
+        <v>10751.0</v>
+      </c>
+      <c r="M27">
+        <v>0.24695218518451223</v>
+      </c>
+      <c r="N27">
+        <v>4.399086848654747e6</v>
+      </c>
+      <c r="O27">
+        <v>3600.0007050037384</v>
+      </c>
+      <c r="P27">
+        <v>3600.0035948753357</v>
+      </c>
+      <c r="Q27">
+        <v>0.0001</v>
+      </c>
+      <c r="R27" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27">
+        <v>3600.0007050037384</v>
+      </c>
+      <c r="T27">
+        <v>3600.0035948753357</v>
+      </c>
+      <c r="U27">
+        <v>4.399086848654747e6</v>
+      </c>
+      <c r="V27">
+        <v>0.0001</v>
+      </c>
+      <c r="W27">
+        <v>0.24695218518451223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+    </row>
+    <row r="28" spans="1:45">
+      <c r="A28">
+        <v>621</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0.75</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28">
+        <v>35106.0</v>
+      </c>
+      <c r="M28">
+        <v>0.031049119759631982</v>
+      </c>
+      <c r="N28">
+        <v>4.192597168364525e6</v>
+      </c>
+      <c r="O28">
+        <v>3600.170651912689</v>
+      </c>
+      <c r="P28">
+        <v>3600.1735389232635</v>
+      </c>
+      <c r="Q28">
+        <v>0.0001</v>
+      </c>
+      <c r="R28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28">
+        <v>3600.170651912689</v>
+      </c>
+      <c r="T28">
+        <v>3600.1735389232635</v>
+      </c>
+      <c r="U28">
+        <v>4.192597168364525e6</v>
+      </c>
+      <c r="V28">
+        <v>0.0001</v>
+      </c>
+      <c r="W28">
+        <v>0.031049119759631982</v>
+      </c>
+      <c r="X28" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+    </row>
+    <row r="29" spans="1:45">
+      <c r="A29">
+        <v>624</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>0.75</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29">
+        <v>10852.0</v>
+      </c>
+      <c r="M29">
+        <v>0.24257268604535207</v>
+      </c>
+      <c r="N29">
+        <v>4.1297438163404465e6</v>
+      </c>
+      <c r="O29">
+        <v>3600.0006189346313</v>
+      </c>
+      <c r="P29">
+        <v>3600.003373146057</v>
+      </c>
+      <c r="Q29">
+        <v>0.0001</v>
+      </c>
+      <c r="R29" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29">
+        <v>3600.0006189346313</v>
+      </c>
+      <c r="T29">
+        <v>3600.003373146057</v>
+      </c>
+      <c r="U29">
+        <v>4.1297438163404465e6</v>
+      </c>
+      <c r="V29">
+        <v>0.0001</v>
+      </c>
+      <c r="W29">
+        <v>0.24257268604535207</v>
+      </c>
+      <c r="X29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+    </row>
+    <row r="30" spans="1:45">
+      <c r="A30">
+        <v>627</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>0.75</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30">
+        <v>30751.0</v>
+      </c>
+      <c r="M30">
+        <v>0.054501556544663494</v>
+      </c>
+      <c r="N30">
+        <v>4.0793833603544235e6</v>
+      </c>
+      <c r="O30">
+        <v>3600.000611782074</v>
+      </c>
+      <c r="P30">
+        <v>3600.0034489631653</v>
+      </c>
+      <c r="Q30">
+        <v>0.0001</v>
+      </c>
+      <c r="R30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30">
+        <v>3600.000611782074</v>
+      </c>
+      <c r="T30">
+        <v>3600.0034489631653</v>
+      </c>
+      <c r="U30">
+        <v>4.0793833603544235e6</v>
+      </c>
+      <c r="V30">
+        <v>0.0001</v>
+      </c>
+      <c r="W30">
+        <v>0.054501556544663494</v>
+      </c>
+      <c r="X30" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+    </row>
+    <row r="31" spans="1:45">
+      <c r="A31">
+        <v>630</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0.75</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31">
+        <v>-195153.0</v>
+      </c>
+      <c r="M31">
+        <v>1.0680407944973187</v>
+      </c>
+      <c r="N31">
+        <v>4.489776329852104e6</v>
+      </c>
+      <c r="O31">
+        <v>3600.000638961792</v>
+      </c>
+      <c r="P31">
+        <v>3600.0033831596375</v>
+      </c>
+      <c r="Q31">
+        <v>0.0001</v>
+      </c>
+      <c r="R31" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31">
+        <v>3600.000638961792</v>
+      </c>
+      <c r="T31">
+        <v>3600.0033831596375</v>
+      </c>
+      <c r="U31">
+        <v>4.489776329852104e6</v>
+      </c>
+      <c r="V31">
+        <v>0.0001</v>
+      </c>
+      <c r="W31">
+        <v>1.0680407944973187</v>
+      </c>
+      <c r="X31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+    </row>
+    <row r="32" spans="1:45">
+      <c r="A32">
+        <v>543</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32">
+        <v>-382894.0</v>
+      </c>
+      <c r="M32">
+        <v>1.0334410692650833</v>
+      </c>
+      <c r="N32">
+        <v>222472.94916534424</v>
+      </c>
+      <c r="O32">
+        <v>180.000736951828</v>
+      </c>
+      <c r="P32">
+        <v>180.00351810455322</v>
+      </c>
+      <c r="Q32">
         <v>0.005</v>
       </c>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>3600.0087780952454</v>
-      </c>
-      <c r="T4">
-        <v>3603.391063928604</v>
-      </c>
-      <c r="U4">
-        <v>4.821229723227501e6</v>
-      </c>
-      <c r="V4">
+      <c r="R32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S32">
+        <v>1980.0024681091309</v>
+      </c>
+      <c r="T32">
+        <v>1980.3662931919098</v>
+      </c>
+      <c r="U32">
+        <v>2.4619522774562836e6</v>
+      </c>
+      <c r="V32">
+        <v>0.05</v>
+      </c>
+      <c r="W32">
+        <v>0.1848278921436508</v>
+      </c>
+      <c r="X32" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y32">
+        <v>10650.0</v>
+      </c>
+      <c r="Z32">
+        <v>0.18847670361029698</v>
+      </c>
+      <c r="AA32">
+        <v>729631.3436794281</v>
+      </c>
+      <c r="AB32">
+        <v>600.000529050827</v>
+      </c>
+      <c r="AC32">
+        <v>600.3553159236908</v>
+      </c>
+      <c r="AD32">
+        <v>0.01</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF32">
+        <v>10664.0</v>
+      </c>
+      <c r="AG32">
+        <v>0.18497917139970046</v>
+      </c>
+      <c r="AH32">
+        <v>750298.8703985214</v>
+      </c>
+      <c r="AI32">
+        <v>600.0005750656128</v>
+      </c>
+      <c r="AJ32">
+        <v>600.0038931369781</v>
+      </c>
+      <c r="AK32">
+        <v>0.02</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM32">
+        <v>10664.0</v>
+      </c>
+      <c r="AN32">
+        <v>0.1848278921436508</v>
+      </c>
+      <c r="AO32">
+        <v>759549.1142129898</v>
+      </c>
+      <c r="AP32">
+        <v>600.000627040863</v>
+      </c>
+      <c r="AQ32">
+        <v>600.0035660266876</v>
+      </c>
+      <c r="AR32">
+        <v>0.05</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33">
+        <v>546</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33">
+        <v>5340.0</v>
+      </c>
+      <c r="M33">
+        <v>0.40670555091206584</v>
+      </c>
+      <c r="N33">
+        <v>225114.07775306702</v>
+      </c>
+      <c r="O33">
+        <v>180.0003321170807</v>
+      </c>
+      <c r="P33">
+        <v>180.00272512435913</v>
+      </c>
+      <c r="Q33">
         <v>0.005</v>
       </c>
-      <c r="W4">
-        <v>1.0539617431258552</v>
-      </c>
-      <c r="X4" t="s">
-        <v>27</v>
+      <c r="R33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S33">
+        <v>1980.0021681785583</v>
+      </c>
+      <c r="T33">
+        <v>1980.0132989883423</v>
+      </c>
+      <c r="U33">
+        <v>2.6218633829927444e6</v>
+      </c>
+      <c r="V33">
+        <v>0.05</v>
+      </c>
+      <c r="W33">
+        <v>0.36061689847242295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y33">
+        <v>5340.0</v>
+      </c>
+      <c r="Z33">
+        <v>0.36075787356555483</v>
+      </c>
+      <c r="AA33">
+        <v>798589.0704908371</v>
+      </c>
+      <c r="AB33">
+        <v>600.0006229877472</v>
+      </c>
+      <c r="AC33">
+        <v>600.0036950111389</v>
+      </c>
+      <c r="AD33">
+        <v>0.01</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF33">
+        <v>5340.0</v>
+      </c>
+      <c r="AG33">
+        <v>0.36087901685461243</v>
+      </c>
+      <c r="AH33">
+        <v>796093.2319879532</v>
+      </c>
+      <c r="AI33">
+        <v>600.0006160736084</v>
+      </c>
+      <c r="AJ33">
+        <v>600.0032398700714</v>
+      </c>
+      <c r="AK33">
+        <v>0.02</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM33">
+        <v>5340.0</v>
+      </c>
+      <c r="AN33">
+        <v>0.36061689847242295</v>
+      </c>
+      <c r="AO33">
+        <v>802067.0027608871</v>
+      </c>
+      <c r="AP33">
+        <v>600.0005970001221</v>
+      </c>
+      <c r="AQ33">
+        <v>600.0036389827728</v>
+      </c>
+      <c r="AR33">
+        <v>0.05</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34">
+        <v>549</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0.25</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
+      </c>
+      <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34">
+        <v>-474405.0</v>
+      </c>
+      <c r="M34">
+        <v>1.026014407969856</v>
+      </c>
+      <c r="N34">
+        <v>233396.90733242035</v>
+      </c>
+      <c r="O34">
+        <v>180.00060391426086</v>
+      </c>
+      <c r="P34">
+        <v>180.00325393676758</v>
+      </c>
+      <c r="Q34">
+        <v>0.005</v>
+      </c>
+      <c r="R34" t="s">
+        <v>46</v>
+      </c>
+      <c r="S34">
+        <v>1980.0024011135101</v>
+      </c>
+      <c r="T34">
+        <v>1980.0137088298798</v>
+      </c>
+      <c r="U34">
+        <v>2.6775544745264053e6</v>
+      </c>
+      <c r="V34">
+        <v>0.05</v>
+      </c>
+      <c r="W34">
+        <v>0.22032426107556213</v>
+      </c>
+      <c r="X34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y34">
+        <v>-410547.0</v>
+      </c>
+      <c r="Z34">
+        <v>1.0296314495649832</v>
+      </c>
+      <c r="AA34">
+        <v>810774.860906601</v>
+      </c>
+      <c r="AB34">
+        <v>600.0008251667023</v>
+      </c>
+      <c r="AC34">
+        <v>600.0036089420319</v>
+      </c>
+      <c r="AD34">
+        <v>0.01</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF34">
+        <v>9945.0</v>
+      </c>
+      <c r="AG34">
+        <v>0.22302217326659216</v>
+      </c>
+      <c r="AH34">
+        <v>829026.2529268265</v>
+      </c>
+      <c r="AI34">
+        <v>600.0006070137024</v>
+      </c>
+      <c r="AJ34">
+        <v>600.0034189224243</v>
+      </c>
+      <c r="AK34">
+        <v>0.02</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM34">
+        <v>9945.0</v>
+      </c>
+      <c r="AN34">
+        <v>0.22032426107556213</v>
+      </c>
+      <c r="AO34">
+        <v>804356.4533605576</v>
+      </c>
+      <c r="AP34">
+        <v>600.0003650188446</v>
+      </c>
+      <c r="AQ34">
+        <v>600.003427028656</v>
+      </c>
+      <c r="AR34">
+        <v>0.05</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35">
+        <v>552</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>0.25</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
+      </c>
+      <c r="H35">
+        <v>30</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35">
+        <v>4252.0</v>
+      </c>
+      <c r="M35">
+        <v>0.7772570532521504</v>
+      </c>
+      <c r="N35">
+        <v>229677.5568189621</v>
+      </c>
+      <c r="O35">
+        <v>180.00078177452087</v>
+      </c>
+      <c r="P35">
+        <v>180.00350189208984</v>
+      </c>
+      <c r="Q35">
+        <v>0.005</v>
+      </c>
+      <c r="R35" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35">
+        <v>1980.0027544498444</v>
+      </c>
+      <c r="T35">
+        <v>1980.0135712623596</v>
+      </c>
+      <c r="U35">
+        <v>2.6440720848884583e6</v>
+      </c>
+      <c r="V35">
+        <v>0.05</v>
+      </c>
+      <c r="W35">
+        <v>0.6985929933642019</v>
+      </c>
+      <c r="X35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y35">
+        <v>4252.0</v>
+      </c>
+      <c r="Z35">
+        <v>0.6986692964076735</v>
+      </c>
+      <c r="AA35">
+        <v>804465.8742990494</v>
+      </c>
+      <c r="AB35">
+        <v>600.0008308887482</v>
+      </c>
+      <c r="AC35">
+        <v>600.0032250881195</v>
+      </c>
+      <c r="AD35">
+        <v>0.01</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF35">
+        <v>4252.0</v>
+      </c>
+      <c r="AG35">
+        <v>0.6989036971433342</v>
+      </c>
+      <c r="AH35">
+        <v>802316.6868972778</v>
+      </c>
+      <c r="AI35">
+        <v>600.0007388591766</v>
+      </c>
+      <c r="AJ35">
+        <v>600.00368309021</v>
+      </c>
+      <c r="AK35">
+        <v>0.02</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM35">
+        <v>4252.0</v>
+      </c>
+      <c r="AN35">
+        <v>0.6985929933642019</v>
+      </c>
+      <c r="AO35">
+        <v>807611.966873169</v>
+      </c>
+      <c r="AP35">
+        <v>600.0004029273987</v>
+      </c>
+      <c r="AQ35">
+        <v>600.0031611919403</v>
+      </c>
+      <c r="AR35">
+        <v>0.05</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36">
+        <v>555</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>30</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36">
+        <v>-990739.0</v>
+      </c>
+      <c r="M36">
+        <v>1.0126898429896884</v>
+      </c>
+      <c r="N36">
+        <v>231316.73031806946</v>
+      </c>
+      <c r="O36">
+        <v>180.00073099136353</v>
+      </c>
+      <c r="P36">
+        <v>180.00295305252075</v>
+      </c>
+      <c r="Q36">
+        <v>0.005</v>
+      </c>
+      <c r="R36" t="s">
+        <v>46</v>
+      </c>
+      <c r="S36">
+        <v>1980.0025219917297</v>
+      </c>
+      <c r="T36">
+        <v>1980.0123491287231</v>
+      </c>
+      <c r="U36">
+        <v>2.6727582528648376e6</v>
+      </c>
+      <c r="V36">
+        <v>0.05</v>
+      </c>
+      <c r="W36">
+        <v>1.0556477835554239</v>
+      </c>
+      <c r="X36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y36">
+        <v>-449204.0</v>
+      </c>
+      <c r="Z36">
+        <v>1.0275288480103053</v>
+      </c>
+      <c r="AA36">
+        <v>812599.2875366211</v>
+      </c>
+      <c r="AB36">
+        <v>600.0005919933319</v>
+      </c>
+      <c r="AC36">
+        <v>600.0028500556946</v>
+      </c>
+      <c r="AD36">
+        <v>0.01</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF36">
+        <v>-329176.0</v>
+      </c>
+      <c r="AG36">
+        <v>1.0376119752372894</v>
+      </c>
+      <c r="AH36">
+        <v>819268.9432611465</v>
+      </c>
+      <c r="AI36">
+        <v>600.0005750656128</v>
+      </c>
+      <c r="AJ36">
+        <v>600.0031390190125</v>
+      </c>
+      <c r="AK36">
+        <v>0.02</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM36">
+        <v>-222457.0</v>
+      </c>
+      <c r="AN36">
+        <v>1.0556477835554239</v>
+      </c>
+      <c r="AO36">
+        <v>809573.2917490005</v>
+      </c>
+      <c r="AP36">
+        <v>600.0006239414215</v>
+      </c>
+      <c r="AQ36">
+        <v>600.0034070014954</v>
+      </c>
+      <c r="AR36">
+        <v>0.05</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37">
+        <v>558</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>0.25</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37">
+        <v>-1.093376e6</v>
+      </c>
+      <c r="M37">
+        <v>1.0064087043226648</v>
+      </c>
+      <c r="N37">
+        <v>241634.51288986206</v>
+      </c>
+      <c r="O37">
+        <v>180.0007209777832</v>
+      </c>
+      <c r="P37">
+        <v>180.0034041404724</v>
+      </c>
+      <c r="Q37">
+        <v>0.005</v>
+      </c>
+      <c r="R37" t="s">
+        <v>46</v>
+      </c>
+      <c r="S37">
+        <v>1980.0025708675385</v>
+      </c>
+      <c r="T37">
+        <v>1980.0135519504547</v>
+      </c>
+      <c r="U37">
+        <v>2.7138964533643723e6</v>
+      </c>
+      <c r="V37">
+        <v>0.05</v>
+      </c>
+      <c r="W37">
+        <v>1.00835011508762</v>
+      </c>
+      <c r="X37" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y37">
+        <v>-810899.0</v>
+      </c>
+      <c r="Z37">
+        <v>1.008386405033519</v>
+      </c>
+      <c r="AA37">
+        <v>803170.0158281326</v>
+      </c>
+      <c r="AB37">
+        <v>600.0006330013275</v>
+      </c>
+      <c r="AC37">
+        <v>600.0035710334778</v>
+      </c>
+      <c r="AD37">
+        <v>0.01</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF37">
+        <v>-810899.0</v>
+      </c>
+      <c r="AG37">
+        <v>1.0083487456443654</v>
+      </c>
+      <c r="AH37">
+        <v>836821.8387212753</v>
+      </c>
+      <c r="AI37">
+        <v>600.000599861145</v>
+      </c>
+      <c r="AJ37">
+        <v>600.0030238628387</v>
+      </c>
+      <c r="AK37">
+        <v>0.02</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM37">
+        <v>-810899.0</v>
+      </c>
+      <c r="AN37">
+        <v>1.00835011508762</v>
+      </c>
+      <c r="AO37">
+        <v>832270.0859251022</v>
+      </c>
+      <c r="AP37">
+        <v>600.0006170272827</v>
+      </c>
+      <c r="AQ37">
+        <v>600.0035529136658</v>
+      </c>
+      <c r="AR37">
+        <v>0.05</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38">
+        <v>561</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0.25</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="H38">
+        <v>30</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38">
+        <v>10294.0</v>
+      </c>
+      <c r="M38">
+        <v>0.27531120731478576</v>
+      </c>
+      <c r="N38">
+        <v>230091.7316274643</v>
+      </c>
+      <c r="O38">
+        <v>180.0007359981537</v>
+      </c>
+      <c r="P38">
+        <v>180.0029330253601</v>
+      </c>
+      <c r="Q38">
+        <v>0.005</v>
+      </c>
+      <c r="R38" t="s">
+        <v>46</v>
+      </c>
+      <c r="S38">
+        <v>1980.0026631355286</v>
+      </c>
+      <c r="T38">
+        <v>1980.0125169754028</v>
+      </c>
+      <c r="U38">
+        <v>2.576548876203537e6</v>
+      </c>
+      <c r="V38">
+        <v>0.05</v>
+      </c>
+      <c r="W38">
+        <v>0.2614673652024504</v>
+      </c>
+      <c r="X38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y38">
+        <v>10294.0</v>
+      </c>
+      <c r="Z38">
+        <v>0.26134160364436143</v>
+      </c>
+      <c r="AA38">
+        <v>786508.9579944611</v>
+      </c>
+      <c r="AB38">
+        <v>600.0006990432739</v>
+      </c>
+      <c r="AC38">
+        <v>600.0034558773041</v>
+      </c>
+      <c r="AD38">
+        <v>0.01</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF38">
+        <v>10294.0</v>
+      </c>
+      <c r="AG38">
+        <v>0.2614243894319664</v>
+      </c>
+      <c r="AH38">
+        <v>781214.4555749893</v>
+      </c>
+      <c r="AI38">
+        <v>600.0006070137024</v>
+      </c>
+      <c r="AJ38">
+        <v>600.0027420520782</v>
+      </c>
+      <c r="AK38">
+        <v>0.02</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM38">
+        <v>10294.0</v>
+      </c>
+      <c r="AN38">
+        <v>0.2614673652024504</v>
+      </c>
+      <c r="AO38">
+        <v>778733.7310066223</v>
+      </c>
+      <c r="AP38">
+        <v>600.0006210803986</v>
+      </c>
+      <c r="AQ38">
+        <v>600.0033860206604</v>
+      </c>
+      <c r="AR38">
+        <v>0.05</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="A39">
+        <v>564</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="E39">
+        <v>0.25</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39">
+        <v>3567.0</v>
+      </c>
+      <c r="M39">
+        <v>1.1202274750335655</v>
+      </c>
+      <c r="N39">
+        <v>222811.4779472351</v>
+      </c>
+      <c r="O39">
+        <v>180.00077414512634</v>
+      </c>
+      <c r="P39">
+        <v>180.0030858516693</v>
+      </c>
+      <c r="Q39">
+        <v>0.005</v>
+      </c>
+      <c r="R39" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39">
+        <v>1980.002518415451</v>
+      </c>
+      <c r="T39">
+        <v>1980.0134046077728</v>
+      </c>
+      <c r="U39">
+        <v>2.5483262813720703e6</v>
+      </c>
+      <c r="V39">
+        <v>0.05</v>
+      </c>
+      <c r="W39">
+        <v>1.0623785723465415</v>
+      </c>
+      <c r="X39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y39">
+        <v>3567.0</v>
+      </c>
+      <c r="Z39">
+        <v>1.0613492159027502</v>
+      </c>
+      <c r="AA39">
+        <v>782022.3469076157</v>
+      </c>
+      <c r="AB39">
+        <v>600.0004501342773</v>
+      </c>
+      <c r="AC39">
+        <v>600.0032868385315</v>
+      </c>
+      <c r="AD39">
+        <v>0.01</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF39">
+        <v>3567.0</v>
+      </c>
+      <c r="AG39">
+        <v>1.0619202147945062</v>
+      </c>
+      <c r="AH39">
+        <v>774436.4507713318</v>
+      </c>
+      <c r="AI39">
+        <v>600.0006160736084</v>
+      </c>
+      <c r="AJ39">
+        <v>600.0033700466156</v>
+      </c>
+      <c r="AK39">
+        <v>0.02</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM39">
+        <v>3567.0</v>
+      </c>
+      <c r="AN39">
+        <v>1.0623785723465415</v>
+      </c>
+      <c r="AO39">
+        <v>769056.0057458878</v>
+      </c>
+      <c r="AP39">
+        <v>600.000678062439</v>
+      </c>
+      <c r="AQ39">
+        <v>600.0036618709564</v>
+      </c>
+      <c r="AR39">
+        <v>0.05</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="A40">
+        <v>567</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0.25</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40">
+        <v>-1.005688e6</v>
+      </c>
+      <c r="M40">
+        <v>1.0124548572343461</v>
+      </c>
+      <c r="N40">
+        <v>229338.487616539</v>
+      </c>
+      <c r="O40">
+        <v>180.00036311149597</v>
+      </c>
+      <c r="P40">
+        <v>180.00293684005737</v>
+      </c>
+      <c r="Q40">
+        <v>0.005</v>
+      </c>
+      <c r="R40" t="s">
+        <v>46</v>
+      </c>
+      <c r="S40">
+        <v>1980.0020942687988</v>
+      </c>
+      <c r="T40">
+        <v>1980.0125188827515</v>
+      </c>
+      <c r="U40">
+        <v>2.675728949903488e6</v>
+      </c>
+      <c r="V40">
+        <v>0.05</v>
+      </c>
+      <c r="W40">
+        <v>1.0291790069440738</v>
+      </c>
+      <c r="X40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y40">
+        <v>-504339.0</v>
+      </c>
+      <c r="Z40">
+        <v>1.0245095543715124</v>
+      </c>
+      <c r="AA40">
+        <v>809936.8776979446</v>
+      </c>
+      <c r="AB40">
+        <v>600.0006320476532</v>
+      </c>
+      <c r="AC40">
+        <v>600.0033049583435</v>
+      </c>
+      <c r="AD40">
+        <v>0.01</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF40">
+        <v>-423460.0</v>
+      </c>
+      <c r="AG40">
+        <v>1.029186730937598</v>
+      </c>
+      <c r="AH40">
+        <v>815883.460316658</v>
+      </c>
+      <c r="AI40">
+        <v>600.000580072403</v>
+      </c>
+      <c r="AJ40">
+        <v>600.0032019615173</v>
+      </c>
+      <c r="AK40">
+        <v>0.02</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM40">
+        <v>-423460.0</v>
+      </c>
+      <c r="AN40">
+        <v>1.0291790069440738</v>
+      </c>
+      <c r="AO40">
+        <v>820570.1242723465</v>
+      </c>
+      <c r="AP40">
+        <v>600.0005190372467</v>
+      </c>
+      <c r="AQ40">
+        <v>600.0030751228333</v>
+      </c>
+      <c r="AR40">
+        <v>0.05</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="A41">
+        <v>570</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0.25</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
+        <v>30</v>
+      </c>
+      <c r="H41">
+        <v>30</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41">
+        <v>-1.339533e6</v>
+      </c>
+      <c r="M41">
+        <v>1.005184216805867</v>
+      </c>
+      <c r="N41">
+        <v>236388.56900787354</v>
+      </c>
+      <c r="O41">
+        <v>180.00069403648376</v>
+      </c>
+      <c r="P41">
+        <v>180.00316500663757</v>
+      </c>
+      <c r="Q41">
+        <v>0.005</v>
+      </c>
+      <c r="R41" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41">
+        <v>1980.0022943019867</v>
+      </c>
+      <c r="T41">
+        <v>1980.0123028755188</v>
+      </c>
+      <c r="U41">
+        <v>2.6930786405801773e6</v>
+      </c>
+      <c r="V41">
+        <v>0.05</v>
+      </c>
+      <c r="W41">
+        <v>1.0086056709102873</v>
+      </c>
+      <c r="X41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y41">
+        <v>-807598.0</v>
+      </c>
+      <c r="Z41">
+        <v>1.0082697600386537</v>
+      </c>
+      <c r="AA41">
+        <v>788596.5711116791</v>
+      </c>
+      <c r="AB41">
+        <v>600.0003371238708</v>
+      </c>
+      <c r="AC41">
+        <v>600.002415895462</v>
+      </c>
+      <c r="AD41">
+        <v>0.01</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF41">
+        <v>-775928.0</v>
+      </c>
+      <c r="AG41">
+        <v>1.0085862219062474</v>
+      </c>
+      <c r="AH41">
+        <v>838874.7871227264</v>
+      </c>
+      <c r="AI41">
+        <v>600.0006279945374</v>
+      </c>
+      <c r="AJ41">
+        <v>600.0035309791565</v>
+      </c>
+      <c r="AK41">
+        <v>0.02</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM41">
+        <v>-775928.0</v>
+      </c>
+      <c r="AN41">
+        <v>1.0086056709102873</v>
+      </c>
+      <c r="AO41">
+        <v>829218.7133378983</v>
+      </c>
+      <c r="AP41">
+        <v>600.0006351470947</v>
+      </c>
+      <c r="AQ41">
+        <v>600.0031909942627</v>
+      </c>
+      <c r="AR41">
+        <v>0.05</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45">
+      <c r="A42">
+        <v>573</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
+      <c r="H42">
+        <v>30</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42">
+        <v>-563443.0</v>
+      </c>
+      <c r="M42">
+        <v>1.0441767837240685</v>
+      </c>
+      <c r="N42">
+        <v>229009.1190481186</v>
+      </c>
+      <c r="O42">
+        <v>180.00043511390686</v>
+      </c>
+      <c r="P42">
+        <v>180.00305891036987</v>
+      </c>
+      <c r="Q42">
+        <v>0.005</v>
+      </c>
+      <c r="R42" t="s">
+        <v>46</v>
+      </c>
+      <c r="S42">
+        <v>1980.0023889541626</v>
+      </c>
+      <c r="T42">
+        <v>1980.0124642848969</v>
+      </c>
+      <c r="U42">
+        <v>2.599247140545845e6</v>
+      </c>
+      <c r="V42">
+        <v>0.05</v>
+      </c>
+      <c r="W42">
+        <v>0.11109345320705656</v>
+      </c>
+      <c r="X42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y42">
+        <v>22274.0</v>
+      </c>
+      <c r="Z42">
+        <v>0.11168261660848994</v>
+      </c>
+      <c r="AA42">
+        <v>761465.04637146</v>
+      </c>
+      <c r="AB42">
+        <v>600.0008289813995</v>
+      </c>
+      <c r="AC42">
+        <v>600.0034041404724</v>
+      </c>
+      <c r="AD42">
+        <v>0.01</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF42">
+        <v>22274.0</v>
+      </c>
+      <c r="AG42">
+        <v>0.11106719758274589</v>
+      </c>
+      <c r="AH42">
+        <v>807570.7505664825</v>
+      </c>
+      <c r="AI42">
+        <v>600.0005578994751</v>
+      </c>
+      <c r="AJ42">
+        <v>600.0031201839447</v>
+      </c>
+      <c r="AK42">
+        <v>0.02</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM42">
+        <v>22274.0</v>
+      </c>
+      <c r="AN42">
+        <v>0.11109345320705656</v>
+      </c>
+      <c r="AO42">
+        <v>801202.2245597839</v>
+      </c>
+      <c r="AP42">
+        <v>600.0005669593811</v>
+      </c>
+      <c r="AQ42">
+        <v>600.0028810501099</v>
+      </c>
+      <c r="AR42">
+        <v>0.05</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="A43">
+        <v>576</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43">
+        <v>10605.0</v>
+      </c>
+      <c r="M43">
+        <v>0.23187436815583082</v>
+      </c>
+      <c r="N43">
+        <v>227592.94415283203</v>
+      </c>
+      <c r="O43">
+        <v>180.0007040500641</v>
+      </c>
+      <c r="P43">
+        <v>180.00314807891846</v>
+      </c>
+      <c r="Q43">
+        <v>0.005</v>
+      </c>
+      <c r="R43" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43">
+        <v>1980.0030317306519</v>
+      </c>
+      <c r="T43">
+        <v>1980.013471364975</v>
+      </c>
+      <c r="U43">
+        <v>2.646581467991829e6</v>
+      </c>
+      <c r="V43">
+        <v>0.05</v>
+      </c>
+      <c r="W43">
+        <v>0.20621874549915403</v>
+      </c>
+      <c r="X43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y43">
+        <v>10605.0</v>
+      </c>
+      <c r="Z43">
+        <v>0.20635281010827847</v>
+      </c>
+      <c r="AA43">
+        <v>800777.0753908157</v>
+      </c>
+      <c r="AB43">
+        <v>600.000804901123</v>
+      </c>
+      <c r="AC43">
+        <v>600.0029580593109</v>
+      </c>
+      <c r="AD43">
+        <v>0.01</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF43">
+        <v>10605.0</v>
+      </c>
+      <c r="AG43">
+        <v>0.20625830140962031</v>
+      </c>
+      <c r="AH43">
+        <v>807930.846321106</v>
+      </c>
+      <c r="AI43">
+        <v>600.0006968975067</v>
+      </c>
+      <c r="AJ43">
+        <v>600.003576040268</v>
+      </c>
+      <c r="AK43">
+        <v>0.02</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM43">
+        <v>10605.0</v>
+      </c>
+      <c r="AN43">
+        <v>0.20621874549915403</v>
+      </c>
+      <c r="AO43">
+        <v>810280.6021270752</v>
+      </c>
+      <c r="AP43">
+        <v>600.000825881958</v>
+      </c>
+      <c r="AQ43">
+        <v>600.0037891864777</v>
+      </c>
+      <c r="AR43">
+        <v>0.05</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="A44">
+        <v>579</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44">
+        <v>22048.0</v>
+      </c>
+      <c r="M44">
+        <v>0.07093734148244361</v>
+      </c>
+      <c r="N44">
+        <v>219197.17659664154</v>
+      </c>
+      <c r="O44">
+        <v>180.000638961792</v>
+      </c>
+      <c r="P44">
+        <v>180.00324892997742</v>
+      </c>
+      <c r="Q44">
+        <v>0.005</v>
+      </c>
+      <c r="R44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S44">
+        <v>1980.002188205719</v>
+      </c>
+      <c r="T44">
+        <v>1980.013309955597</v>
+      </c>
+      <c r="U44">
+        <v>2.6105079638834e6</v>
+      </c>
+      <c r="V44">
+        <v>0.05</v>
+      </c>
+      <c r="W44">
+        <v>0.06540103289972575</v>
+      </c>
+      <c r="X44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y44">
+        <v>22048.0</v>
+      </c>
+      <c r="Z44">
+        <v>0.06541946058794133</v>
+      </c>
+      <c r="AA44">
+        <v>791904.8998098373</v>
+      </c>
+      <c r="AB44">
+        <v>600.0005979537964</v>
+      </c>
+      <c r="AC44">
+        <v>600.0032131671906</v>
+      </c>
+      <c r="AD44">
+        <v>0.01</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF44">
+        <v>22048.0</v>
+      </c>
+      <c r="AG44">
+        <v>0.06536096239313877</v>
+      </c>
+      <c r="AH44">
+        <v>803668.2411870956</v>
+      </c>
+      <c r="AI44">
+        <v>600.0003092288971</v>
+      </c>
+      <c r="AJ44">
+        <v>600.0031368732452</v>
+      </c>
+      <c r="AK44">
+        <v>0.02</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM44">
+        <v>22048.0</v>
+      </c>
+      <c r="AN44">
+        <v>0.06540103289972575</v>
+      </c>
+      <c r="AO44">
+        <v>795737.6462898254</v>
+      </c>
+      <c r="AP44">
+        <v>600.0006420612335</v>
+      </c>
+      <c r="AQ44">
+        <v>600.0037109851837</v>
+      </c>
+      <c r="AR44">
+        <v>0.05</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="A45">
+        <v>582</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>30</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45">
+        <v>8629.0</v>
+      </c>
+      <c r="M45">
+        <v>0.4524526366780456</v>
+      </c>
+      <c r="N45">
+        <v>236314.8149433136</v>
+      </c>
+      <c r="O45">
+        <v>180.00064182281494</v>
+      </c>
+      <c r="P45">
+        <v>180.0033140182495</v>
+      </c>
+      <c r="Q45">
+        <v>0.005</v>
+      </c>
+      <c r="R45" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45">
+        <v>1980.0023555755615</v>
+      </c>
+      <c r="T45">
+        <v>1980.0131180286407</v>
+      </c>
+      <c r="U45">
+        <v>2.6918378770313263e6</v>
+      </c>
+      <c r="V45">
+        <v>0.05</v>
+      </c>
+      <c r="W45">
+        <v>0.43220364198901023</v>
+      </c>
+      <c r="X45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y45">
+        <v>8629.0</v>
+      </c>
+      <c r="Z45">
+        <v>0.4321806179085116</v>
+      </c>
+      <c r="AA45">
+        <v>817646.1869392395</v>
+      </c>
+      <c r="AB45">
+        <v>600.0006039142609</v>
+      </c>
+      <c r="AC45">
+        <v>600.0031790733337</v>
+      </c>
+      <c r="AD45">
+        <v>0.01</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF45">
+        <v>8629.0</v>
+      </c>
+      <c r="AG45">
+        <v>0.43210468964262205</v>
+      </c>
+      <c r="AH45">
+        <v>821354.7771263123</v>
+      </c>
+      <c r="AI45">
+        <v>600.0005569458008</v>
+      </c>
+      <c r="AJ45">
+        <v>600.0033128261566</v>
+      </c>
+      <c r="AK45">
+        <v>0.02</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM45">
+        <v>8629.0</v>
+      </c>
+      <c r="AN45">
+        <v>0.43220364198901023</v>
+      </c>
+      <c r="AO45">
+        <v>816522.0980224609</v>
+      </c>
+      <c r="AP45">
+        <v>600.0005528926849</v>
+      </c>
+      <c r="AQ45">
+        <v>600.0033121109009</v>
+      </c>
+      <c r="AR45">
+        <v>0.05</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45">
+      <c r="A46">
+        <v>585</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46">
+        <v>-301122.0</v>
+      </c>
+      <c r="M46">
+        <v>1.0824254463928435</v>
+      </c>
+      <c r="N46">
+        <v>216853.76136112213</v>
+      </c>
+      <c r="O46">
+        <v>180.0006890296936</v>
+      </c>
+      <c r="P46">
+        <v>180.00267910957336</v>
+      </c>
+      <c r="Q46">
+        <v>0.005</v>
+      </c>
+      <c r="R46" t="s">
+        <v>46</v>
+      </c>
+      <c r="S46">
+        <v>1980.0029470920563</v>
+      </c>
+      <c r="T46">
+        <v>1980.0126821994781</v>
+      </c>
+      <c r="U46">
+        <v>2.548548118659973e6</v>
+      </c>
+      <c r="V46">
+        <v>0.05</v>
+      </c>
+      <c r="W46">
+        <v>0.07828546869142107</v>
+      </c>
+      <c r="X46" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y46">
+        <v>22236.0</v>
+      </c>
+      <c r="Z46">
+        <v>0.11227209574799854</v>
+      </c>
+      <c r="AA46">
+        <v>753620.8506145477</v>
+      </c>
+      <c r="AB46">
+        <v>600.0006320476532</v>
+      </c>
+      <c r="AC46">
+        <v>600.0025160312653</v>
+      </c>
+      <c r="AD46">
+        <v>0.01</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF46">
+        <v>22891.0</v>
+      </c>
+      <c r="AG46">
+        <v>0.07812494388392228</v>
+      </c>
+      <c r="AH46">
+        <v>796353.2621650696</v>
+      </c>
+      <c r="AI46">
+        <v>600.0006899833679</v>
+      </c>
+      <c r="AJ46">
+        <v>600.0034101009369</v>
+      </c>
+      <c r="AK46">
+        <v>0.02</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM46">
+        <v>22891.0</v>
+      </c>
+      <c r="AN46">
+        <v>0.07828546869142107</v>
+      </c>
+      <c r="AO46">
+        <v>781720.2445192337</v>
+      </c>
+      <c r="AP46">
+        <v>600.0009360313416</v>
+      </c>
+      <c r="AQ46">
+        <v>600.0040769577026</v>
+      </c>
+      <c r="AR46">
+        <v>0.05</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="A47">
+        <v>588</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47">
+        <v>30</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47">
+        <v>10155.0</v>
+      </c>
+      <c r="M47">
+        <v>0.2842021911393684</v>
+      </c>
+      <c r="N47">
+        <v>211495.0866575241</v>
+      </c>
+      <c r="O47">
+        <v>180.00069212913513</v>
+      </c>
+      <c r="P47">
+        <v>180.00352501869202</v>
+      </c>
+      <c r="Q47">
+        <v>0.005</v>
+      </c>
+      <c r="R47" t="s">
+        <v>46</v>
+      </c>
+      <c r="S47">
+        <v>1980.0030238628387</v>
+      </c>
+      <c r="T47">
+        <v>1980.0139591693878</v>
+      </c>
+      <c r="U47">
+        <v>2.515419066635132e6</v>
+      </c>
+      <c r="V47">
+        <v>0.05</v>
+      </c>
+      <c r="W47">
+        <v>0.22637372899257546</v>
+      </c>
+      <c r="X47" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y47">
+        <v>10428.0</v>
+      </c>
+      <c r="Z47">
+        <v>0.22609078596201299</v>
+      </c>
+      <c r="AA47">
+        <v>755787.8938426971</v>
+      </c>
+      <c r="AB47">
+        <v>600.0010740756989</v>
+      </c>
+      <c r="AC47">
+        <v>600.0035789012909</v>
+      </c>
+      <c r="AD47">
+        <v>0.01</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF47">
+        <v>10428.0</v>
+      </c>
+      <c r="AG47">
+        <v>0.22633219609574406</v>
+      </c>
+      <c r="AH47">
+        <v>775131.1589727402</v>
+      </c>
+      <c r="AI47">
+        <v>600.000590801239</v>
+      </c>
+      <c r="AJ47">
+        <v>600.0032811164856</v>
+      </c>
+      <c r="AK47">
+        <v>0.02</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM47">
+        <v>10428.0</v>
+      </c>
+      <c r="AN47">
+        <v>0.22637372899257546</v>
+      </c>
+      <c r="AO47">
+        <v>773004.9271621704</v>
+      </c>
+      <c r="AP47">
+        <v>600.0006668567657</v>
+      </c>
+      <c r="AQ47">
+        <v>600.0035741329193</v>
+      </c>
+      <c r="AR47">
+        <v>0.05</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48">
+        <v>591</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="G48">
+        <v>30</v>
+      </c>
+      <c r="H48">
+        <v>30</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>45</v>
+      </c>
+      <c r="L48">
+        <v>-365051.0</v>
+      </c>
+      <c r="M48">
+        <v>1.0672197246638218</v>
+      </c>
+      <c r="N48">
+        <v>229649.41633415222</v>
+      </c>
+      <c r="O48">
+        <v>180.00054502487183</v>
+      </c>
+      <c r="P48">
+        <v>180.0032079219818</v>
+      </c>
+      <c r="Q48">
+        <v>0.005</v>
+      </c>
+      <c r="R48" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48">
+        <v>1980.0023181438446</v>
+      </c>
+      <c r="T48">
+        <v>1980.0133998394012</v>
+      </c>
+      <c r="U48">
+        <v>2.639756862236023e6</v>
+      </c>
+      <c r="V48">
+        <v>0.05</v>
+      </c>
+      <c r="W48">
+        <v>0.07704567467780896</v>
+      </c>
+      <c r="X48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y48">
+        <v>22619.0</v>
+      </c>
+      <c r="Z48">
+        <v>0.08072938117382442</v>
+      </c>
+      <c r="AA48">
+        <v>755252.6385307312</v>
+      </c>
+      <c r="AB48">
+        <v>600.0004730224609</v>
+      </c>
+      <c r="AC48">
+        <v>600.0032501220703</v>
+      </c>
+      <c r="AD48">
+        <v>0.01</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF48">
+        <v>22619.0</v>
+      </c>
+      <c r="AG48">
+        <v>0.07696461632069135</v>
+      </c>
+      <c r="AH48">
+        <v>833755.2482690811</v>
+      </c>
+      <c r="AI48">
+        <v>600.000629901886</v>
+      </c>
+      <c r="AJ48">
+        <v>600.0033829212189</v>
+      </c>
+      <c r="AK48">
+        <v>0.02</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM48">
+        <v>22619.0</v>
+      </c>
+      <c r="AN48">
+        <v>0.07704567467780896</v>
+      </c>
+      <c r="AO48">
+        <v>821099.5591020584</v>
+      </c>
+      <c r="AP48">
+        <v>600.0006701946259</v>
+      </c>
+      <c r="AQ48">
+        <v>600.0035588741302</v>
+      </c>
+      <c r="AR48">
+        <v>0.05</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45">
+      <c r="A49">
+        <v>594</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>30</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49">
+        <v>9890.0</v>
+      </c>
+      <c r="M49">
+        <v>0.3263594025660983</v>
+      </c>
+      <c r="N49">
+        <v>225148.90153884888</v>
+      </c>
+      <c r="O49">
+        <v>180.0005328655243</v>
+      </c>
+      <c r="P49">
+        <v>180.0032799243927</v>
+      </c>
+      <c r="Q49">
+        <v>0.005</v>
+      </c>
+      <c r="R49" t="s">
+        <v>46</v>
+      </c>
+      <c r="S49">
+        <v>1980.0019118785858</v>
+      </c>
+      <c r="T49">
+        <v>1980.0129368305206</v>
+      </c>
+      <c r="U49">
+        <v>2.5945443774881363e6</v>
+      </c>
+      <c r="V49">
+        <v>0.05</v>
+      </c>
+      <c r="W49">
+        <v>0.3016982540267942</v>
+      </c>
+      <c r="X49" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y49">
+        <v>9890.0</v>
+      </c>
+      <c r="Z49">
+        <v>0.30177459945856866</v>
+      </c>
+      <c r="AA49">
+        <v>786394.3331537247</v>
+      </c>
+      <c r="AB49">
+        <v>600.0003938674927</v>
+      </c>
+      <c r="AC49">
+        <v>600.0028109550476</v>
+      </c>
+      <c r="AD49">
+        <v>0.01</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF49">
+        <v>9890.0</v>
+      </c>
+      <c r="AG49">
+        <v>0.30168464945759105</v>
+      </c>
+      <c r="AH49">
+        <v>791658.0305900574</v>
+      </c>
+      <c r="AI49">
+        <v>600.0006310939789</v>
+      </c>
+      <c r="AJ49">
+        <v>600.0035429000854</v>
+      </c>
+      <c r="AK49">
+        <v>0.02</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM49">
+        <v>9890.0</v>
+      </c>
+      <c r="AN49">
+        <v>0.3016982540267942</v>
+      </c>
+      <c r="AO49">
+        <v>791343.1122055054</v>
+      </c>
+      <c r="AP49">
+        <v>600.00035405159</v>
+      </c>
+      <c r="AQ49">
+        <v>600.0033030509949</v>
+      </c>
+      <c r="AR49">
+        <v>0.05</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45">
+      <c r="A50">
+        <v>597</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>30</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50">
+        <v>-203179.0</v>
+      </c>
+      <c r="M50">
+        <v>1.1269634023257094</v>
+      </c>
+      <c r="N50">
+        <v>220357.2120962143</v>
+      </c>
+      <c r="O50">
+        <v>180.00083208084106</v>
+      </c>
+      <c r="P50">
+        <v>180.00355410575867</v>
+      </c>
+      <c r="Q50">
+        <v>0.005</v>
+      </c>
+      <c r="R50" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50">
+        <v>1980.002624988556</v>
+      </c>
+      <c r="T50">
+        <v>1980.0135700702667</v>
+      </c>
+      <c r="U50">
+        <v>2.5327366619005203e6</v>
+      </c>
+      <c r="V50">
+        <v>0.05</v>
+      </c>
+      <c r="W50">
+        <v>0.07457785125074566</v>
+      </c>
+      <c r="X50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y50">
+        <v>23884.0</v>
+      </c>
+      <c r="Z50">
+        <v>0.07568805158447203</v>
+      </c>
+      <c r="AA50">
+        <v>726615.1034288406</v>
+      </c>
+      <c r="AB50">
+        <v>600.0003249645233</v>
+      </c>
+      <c r="AC50">
+        <v>600.002660036087</v>
+      </c>
+      <c r="AD50">
+        <v>0.01</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF50">
+        <v>23884.0</v>
+      </c>
+      <c r="AG50">
+        <v>0.07450111452734465</v>
+      </c>
+      <c r="AH50">
+        <v>800420.0577259064</v>
+      </c>
+      <c r="AI50">
+        <v>600.0006029605865</v>
+      </c>
+      <c r="AJ50">
+        <v>600.0034399032593</v>
+      </c>
+      <c r="AK50">
+        <v>0.02</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM50">
+        <v>23884.0</v>
+      </c>
+      <c r="AN50">
+        <v>0.07457785125074566</v>
+      </c>
+      <c r="AO50">
+        <v>785344.288649559</v>
+      </c>
+      <c r="AP50">
+        <v>600.000864982605</v>
+      </c>
+      <c r="AQ50">
+        <v>600.0039160251617</v>
+      </c>
+      <c r="AR50">
+        <v>0.05</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45">
+      <c r="A51">
+        <v>600</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>100</v>
+      </c>
+      <c r="G51">
+        <v>30</v>
+      </c>
+      <c r="H51">
+        <v>30</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51">
+        <v>9944.0</v>
+      </c>
+      <c r="M51">
+        <v>0.23493875337299827</v>
+      </c>
+      <c r="N51">
+        <v>221304.18111610413</v>
+      </c>
+      <c r="O51">
+        <v>180.0006799697876</v>
+      </c>
+      <c r="P51">
+        <v>180.00304913520813</v>
+      </c>
+      <c r="Q51">
+        <v>0.005</v>
+      </c>
+      <c r="R51" t="s">
+        <v>46</v>
+      </c>
+      <c r="S51">
+        <v>1980.001872062683</v>
+      </c>
+      <c r="T51">
+        <v>1980.0126783847809</v>
+      </c>
+      <c r="U51">
+        <v>2.67440498012352e6</v>
+      </c>
+      <c r="V51">
+        <v>0.05</v>
+      </c>
+      <c r="W51">
+        <v>0.21328264252744034</v>
+      </c>
+      <c r="X51" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y51">
+        <v>9944.0</v>
+      </c>
+      <c r="Z51">
+        <v>0.21356865281035947</v>
+      </c>
+      <c r="AA51">
+        <v>806552.7714061737</v>
+      </c>
+      <c r="AB51">
+        <v>600.000335931778</v>
+      </c>
+      <c r="AC51">
+        <v>600.0029311180115</v>
+      </c>
+      <c r="AD51">
+        <v>0.01</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF51">
+        <v>9944.0</v>
+      </c>
+      <c r="AG51">
+        <v>0.21334749765196415</v>
+      </c>
+      <c r="AH51">
+        <v>821197.3939609528</v>
+      </c>
+      <c r="AI51">
+        <v>600.0002951622009</v>
+      </c>
+      <c r="AJ51">
+        <v>600.0032510757446</v>
+      </c>
+      <c r="AK51">
+        <v>0.02</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM51">
+        <v>9944.0</v>
+      </c>
+      <c r="AN51">
+        <v>0.21328264252744034</v>
+      </c>
+      <c r="AO51">
+        <v>825350.6336402893</v>
+      </c>
+      <c r="AP51">
+        <v>600.0005609989166</v>
+      </c>
+      <c r="AQ51">
+        <v>600.0034470558167</v>
+      </c>
+      <c r="AR51">
+        <v>0.05</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45">
+      <c r="A52">
+        <v>603</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>0.75</v>
+      </c>
+      <c r="F52">
+        <v>100</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
+      </c>
+      <c r="H52">
+        <v>30</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>-1.345503e6</v>
+      </c>
+      <c r="M52">
+        <v>1.0267921404428975</v>
+      </c>
+      <c r="N52">
+        <v>246706.40151691437</v>
+      </c>
+      <c r="O52">
+        <v>180.00069999694824</v>
+      </c>
+      <c r="P52">
+        <v>180.00335383415222</v>
+      </c>
+      <c r="Q52">
+        <v>0.005</v>
+      </c>
+      <c r="R52" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52">
+        <v>1980.0025103092194</v>
+      </c>
+      <c r="T52">
+        <v>1980.013320684433</v>
+      </c>
+      <c r="U52">
+        <v>2.809259972094536e6</v>
+      </c>
+      <c r="V52">
+        <v>0.05</v>
+      </c>
+      <c r="W52">
+        <v>1.0395968951364691</v>
+      </c>
+      <c r="X52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y52">
+        <v>-906768.0</v>
+      </c>
+      <c r="Z52">
+        <v>1.0395784377462087</v>
+      </c>
+      <c r="AA52">
+        <v>822929.8101034164</v>
+      </c>
+      <c r="AB52">
+        <v>600.0005090236664</v>
+      </c>
+      <c r="AC52">
+        <v>600.003525018692</v>
+      </c>
+      <c r="AD52">
+        <v>0.01</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF52">
+        <v>-906768.0</v>
+      </c>
+      <c r="AG52">
+        <v>1.0395965999911558</v>
+      </c>
+      <c r="AH52">
+        <v>870690.901090622</v>
+      </c>
+      <c r="AI52">
+        <v>600.0006082057953</v>
+      </c>
+      <c r="AJ52">
+        <v>600.0027480125427</v>
+      </c>
+      <c r="AK52">
+        <v>0.02</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM52">
+        <v>-906768.0</v>
+      </c>
+      <c r="AN52">
+        <v>1.0395968951364691</v>
+      </c>
+      <c r="AO52">
+        <v>868932.8593835831</v>
+      </c>
+      <c r="AP52">
+        <v>600.0006930828094</v>
+      </c>
+      <c r="AQ52">
+        <v>600.003693819046</v>
+      </c>
+      <c r="AR52">
+        <v>0.05</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45">
+      <c r="A53">
+        <v>606</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>0.75</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L53">
+        <v>-874467.0</v>
+      </c>
+      <c r="M53">
+        <v>1.0165246489400255</v>
+      </c>
+      <c r="N53">
+        <v>238046.9352645874</v>
+      </c>
+      <c r="O53">
+        <v>180.00069117546082</v>
+      </c>
+      <c r="P53">
+        <v>180.00187182426453</v>
+      </c>
+      <c r="Q53">
+        <v>0.005</v>
+      </c>
+      <c r="R53" t="s">
+        <v>46</v>
+      </c>
+      <c r="S53">
+        <v>1980.0024573802948</v>
+      </c>
+      <c r="T53">
+        <v>1980.0114839076996</v>
+      </c>
+      <c r="U53">
+        <v>2.7638150774536133e6</v>
+      </c>
+      <c r="V53">
+        <v>0.05</v>
+      </c>
+      <c r="W53">
+        <v>1.028298511296619</v>
+      </c>
+      <c r="X53" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y53">
+        <v>-597165.0</v>
+      </c>
+      <c r="Z53">
+        <v>1.0237912002544318</v>
+      </c>
+      <c r="AA53">
+        <v>822478.7522134781</v>
+      </c>
+      <c r="AB53">
+        <v>600.0005741119385</v>
+      </c>
+      <c r="AC53">
+        <v>600.0029129981995</v>
+      </c>
+      <c r="AD53">
+        <v>0.01</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF53">
+        <v>-501589.0</v>
+      </c>
+      <c r="AG53">
+        <v>1.0283343454141074</v>
+      </c>
+      <c r="AH53">
+        <v>844717.7713937759</v>
+      </c>
+      <c r="AI53">
+        <v>600.0006399154663</v>
+      </c>
+      <c r="AJ53">
+        <v>600.0032780170441</v>
+      </c>
+      <c r="AK53">
+        <v>0.02</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM53">
+        <v>-501589.0</v>
+      </c>
+      <c r="AN53">
+        <v>1.028298511296619</v>
+      </c>
+      <c r="AO53">
+        <v>858571.6185817719</v>
+      </c>
+      <c r="AP53">
+        <v>600.0005521774292</v>
+      </c>
+      <c r="AQ53">
+        <v>600.0034210681915</v>
+      </c>
+      <c r="AR53">
+        <v>0.05</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45">
+      <c r="A54">
+        <v>609</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>0.75</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+      <c r="H54">
+        <v>30</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54">
+        <v>-27462.0</v>
+      </c>
+      <c r="M54">
+        <v>2.2456439579624448</v>
+      </c>
+      <c r="N54">
+        <v>231981.77270507812</v>
+      </c>
+      <c r="O54">
+        <v>180.0003960132599</v>
+      </c>
+      <c r="P54">
+        <v>180.00306510925293</v>
+      </c>
+      <c r="Q54">
+        <v>0.005</v>
+      </c>
+      <c r="R54" t="s">
+        <v>46</v>
+      </c>
+      <c r="S54">
+        <v>1980.002151966095</v>
+      </c>
+      <c r="T54">
+        <v>1980.012659072876</v>
+      </c>
+      <c r="U54">
+        <v>2.664944975575447e6</v>
+      </c>
+      <c r="V54">
+        <v>0.05</v>
+      </c>
+      <c r="W54">
+        <v>2.23931852617447</v>
+      </c>
+      <c r="X54" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y54">
+        <v>-27462.0</v>
+      </c>
+      <c r="Z54">
+        <v>2.239340316227145</v>
+      </c>
+      <c r="AA54">
+        <v>807504.9231348038</v>
+      </c>
+      <c r="AB54">
+        <v>600.0007119178772</v>
+      </c>
+      <c r="AC54">
+        <v>600.0030381679535</v>
+      </c>
+      <c r="AD54">
+        <v>0.01</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF54">
+        <v>-27462.0</v>
+      </c>
+      <c r="AG54">
+        <v>2.2393048646324294</v>
+      </c>
+      <c r="AH54">
+        <v>813938.1303195953</v>
+      </c>
+      <c r="AI54">
+        <v>600.0005650520325</v>
+      </c>
+      <c r="AJ54">
+        <v>600.0032699108124</v>
+      </c>
+      <c r="AK54">
+        <v>0.02</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM54">
+        <v>-27462.0</v>
+      </c>
+      <c r="AN54">
+        <v>2.23931852617447</v>
+      </c>
+      <c r="AO54">
+        <v>811520.1494159698</v>
+      </c>
+      <c r="AP54">
+        <v>600.0004789829254</v>
+      </c>
+      <c r="AQ54">
+        <v>600.0032858848572</v>
+      </c>
+      <c r="AR54">
+        <v>0.05</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45">
+      <c r="A55">
+        <v>612</v>
+      </c>
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.75</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
+      </c>
+      <c r="H55">
+        <v>30</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L55">
+        <v>-429197.0</v>
+      </c>
+      <c r="M55">
+        <v>1.0347552219604184</v>
+      </c>
+      <c r="N55">
+        <v>237349.81297397614</v>
+      </c>
+      <c r="O55">
+        <v>180.00071215629578</v>
+      </c>
+      <c r="P55">
+        <v>180.00328993797302</v>
+      </c>
+      <c r="Q55">
+        <v>0.005</v>
+      </c>
+      <c r="R55" t="s">
+        <v>46</v>
+      </c>
+      <c r="S55">
+        <v>1980.0023250579834</v>
+      </c>
+      <c r="T55">
+        <v>1980.01247382164</v>
+      </c>
+      <c r="U55">
+        <v>2.6795015156879425e6</v>
+      </c>
+      <c r="V55">
+        <v>0.05</v>
+      </c>
+      <c r="W55">
+        <v>1.0349395350358934</v>
+      </c>
+      <c r="X55" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y55">
+        <v>-429197.0</v>
+      </c>
+      <c r="Z55">
+        <v>1.0341600305898933</v>
+      </c>
+      <c r="AA55">
+        <v>817064.3900022507</v>
+      </c>
+      <c r="AB55">
+        <v>600.0006990432739</v>
+      </c>
+      <c r="AC55">
+        <v>600.0027139186859</v>
+      </c>
+      <c r="AD55">
+        <v>0.01</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF55">
+        <v>-429197.0</v>
+      </c>
+      <c r="AG55">
+        <v>1.034162585473538</v>
+      </c>
+      <c r="AH55">
+        <v>813618.4994659424</v>
+      </c>
+      <c r="AI55">
+        <v>600.0005688667297</v>
+      </c>
+      <c r="AJ55">
+        <v>600.0031540393829</v>
+      </c>
+      <c r="AK55">
+        <v>0.02</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM55">
+        <v>-419662.0</v>
+      </c>
+      <c r="AN55">
+        <v>1.0349395350358934</v>
+      </c>
+      <c r="AO55">
+        <v>811468.8132457733</v>
+      </c>
+      <c r="AP55">
+        <v>600.000344991684</v>
+      </c>
+      <c r="AQ55">
+        <v>600.0033159255981</v>
+      </c>
+      <c r="AR55">
+        <v>0.05</v>
+      </c>
+      <c r="AS55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45">
+      <c r="A56">
+        <v>615</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>0.75</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>30</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56">
+        <v>-223347.0</v>
+      </c>
+      <c r="M56">
+        <v>1.1536920726081223</v>
+      </c>
+      <c r="N56">
+        <v>223368.62855911255</v>
+      </c>
+      <c r="O56">
+        <v>180.00068306922913</v>
+      </c>
+      <c r="P56">
+        <v>180.0030689239502</v>
+      </c>
+      <c r="Q56">
+        <v>0.005</v>
+      </c>
+      <c r="R56" t="s">
+        <v>46</v>
+      </c>
+      <c r="S56">
+        <v>1920.6141693592072</v>
+      </c>
+      <c r="T56">
+        <v>1920.6238949298859</v>
+      </c>
+      <c r="U56">
+        <v>2.5173725367269516e6</v>
+      </c>
+      <c r="V56">
+        <v>0.05</v>
+      </c>
+      <c r="W56">
+        <v>0.03748621496068677</v>
+      </c>
+      <c r="X56" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y56">
+        <v>-78978.0</v>
+      </c>
+      <c r="Z56">
+        <v>1.432881840158747</v>
+      </c>
+      <c r="AA56">
+        <v>776805.0578899384</v>
+      </c>
+      <c r="AB56">
+        <v>600.0005631446838</v>
+      </c>
+      <c r="AC56">
+        <v>600.0026738643646</v>
+      </c>
+      <c r="AD56">
+        <v>0.01</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF56">
+        <v>-78978.0</v>
+      </c>
+      <c r="AG56">
+        <v>1.4326938010054784</v>
+      </c>
+      <c r="AH56">
+        <v>794241.774597168</v>
+      </c>
+      <c r="AI56">
+        <v>600.0005991458893</v>
+      </c>
+      <c r="AJ56">
+        <v>600.0033860206604</v>
+      </c>
+      <c r="AK56">
+        <v>0.02</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM56">
+        <v>32942.0</v>
+      </c>
+      <c r="AN56">
+        <v>0.03748621496068677</v>
+      </c>
+      <c r="AO56">
+        <v>722957.0756807327</v>
+      </c>
+      <c r="AP56">
+        <v>540.6123239994049</v>
+      </c>
+      <c r="AQ56">
+        <v>540.6147661209106</v>
+      </c>
+      <c r="AR56">
+        <v>0.05</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
+      <c r="A57">
+        <v>618</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>0.75</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57">
+        <v>10751.0</v>
+      </c>
+      <c r="M57">
+        <v>0.298091788628365</v>
+      </c>
+      <c r="N57">
+        <v>233756.73223018646</v>
+      </c>
+      <c r="O57">
+        <v>180.0006890296936</v>
+      </c>
+      <c r="P57">
+        <v>180.00323295593262</v>
+      </c>
+      <c r="Q57">
+        <v>0.005</v>
+      </c>
+      <c r="R57" t="s">
+        <v>46</v>
+      </c>
+      <c r="S57">
+        <v>1980.0026750564575</v>
+      </c>
+      <c r="T57">
+        <v>1980.0126385688782</v>
+      </c>
+      <c r="U57">
+        <v>2.663829166727066e6</v>
+      </c>
+      <c r="V57">
+        <v>0.05</v>
+      </c>
+      <c r="W57">
+        <v>0.26937955810474296</v>
+      </c>
+      <c r="X57" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y57">
+        <v>10751.0</v>
+      </c>
+      <c r="Z57">
+        <v>0.2694189847878786</v>
+      </c>
+      <c r="AA57">
+        <v>809222.9661893845</v>
+      </c>
+      <c r="AB57">
+        <v>600.0007200241089</v>
+      </c>
+      <c r="AC57">
+        <v>600.0029878616333</v>
+      </c>
+      <c r="AD57">
+        <v>0.01</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF57">
+        <v>10751.0</v>
+      </c>
+      <c r="AG57">
+        <v>0.26947095518276426</v>
+      </c>
+      <c r="AH57">
+        <v>808099.5171194077</v>
+      </c>
+      <c r="AI57">
+        <v>600.0005888938904</v>
+      </c>
+      <c r="AJ57">
+        <v>600.0037188529968</v>
+      </c>
+      <c r="AK57">
+        <v>0.02</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM57">
+        <v>10751.0</v>
+      </c>
+      <c r="AN57">
+        <v>0.26937955810474296</v>
+      </c>
+      <c r="AO57">
+        <v>812749.9511880875</v>
+      </c>
+      <c r="AP57">
+        <v>600.0006771087646</v>
+      </c>
+      <c r="AQ57">
+        <v>600.0026988983154</v>
+      </c>
+      <c r="AR57">
+        <v>0.05</v>
+      </c>
+      <c r="AS57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
+      <c r="A58">
+        <v>621</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>0.75</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58">
+        <v>34667.0</v>
+      </c>
+      <c r="M58">
+        <v>0.052862642198382624</v>
+      </c>
+      <c r="N58">
+        <v>220397.87934207916</v>
+      </c>
+      <c r="O58">
+        <v>180.00069499015808</v>
+      </c>
+      <c r="P58">
+        <v>180.00346517562866</v>
+      </c>
+      <c r="Q58">
+        <v>0.005</v>
+      </c>
+      <c r="R58" t="s">
+        <v>46</v>
+      </c>
+      <c r="S58">
+        <v>1383.9440298080444</v>
+      </c>
+      <c r="T58">
+        <v>1383.9547984600067</v>
+      </c>
+      <c r="U58">
+        <v>1.758698556903839e6</v>
+      </c>
+      <c r="V58">
+        <v>0.05</v>
+      </c>
+      <c r="W58">
+        <v>0.049996826596102543</v>
+      </c>
+      <c r="X58" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y58">
+        <v>34837.0</v>
+      </c>
+      <c r="Z58">
+        <v>0.04277893260231206</v>
+      </c>
+      <c r="AA58">
+        <v>759886.6675109863</v>
+      </c>
+      <c r="AB58">
+        <v>600.001091003418</v>
+      </c>
+      <c r="AC58">
+        <v>600.0032620429993</v>
+      </c>
+      <c r="AD58">
+        <v>0.01</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF58">
+        <v>35106.0</v>
+      </c>
+      <c r="AG58">
+        <v>0.03489576265354184</v>
+      </c>
+      <c r="AH58">
+        <v>773217.3326025009</v>
+      </c>
+      <c r="AI58">
+        <v>600.0006418228149</v>
+      </c>
+      <c r="AJ58">
+        <v>600.0035741329193</v>
+      </c>
+      <c r="AK58">
+        <v>0.02</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM58">
+        <v>35106.0</v>
+      </c>
+      <c r="AN58">
+        <v>0.049996826596102543</v>
+      </c>
+      <c r="AO58">
+        <v>5196.677448272705</v>
+      </c>
+      <c r="AP58">
+        <v>3.9416019916534424</v>
+      </c>
+      <c r="AQ58">
+        <v>3.9444971084594727</v>
+      </c>
+      <c r="AR58">
+        <v>0.05</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45">
+      <c r="A59">
+        <v>624</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>0.75</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="H59">
+        <v>30</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L59">
+        <v>-241352.0</v>
+      </c>
+      <c r="M59">
+        <v>1.0580428458013968</v>
+      </c>
+      <c r="N59">
+        <v>237624.91279125214</v>
+      </c>
+      <c r="O59">
+        <v>180.00063705444336</v>
+      </c>
+      <c r="P59">
+        <v>180.0031590461731</v>
+      </c>
+      <c r="Q59">
+        <v>0.005</v>
+      </c>
+      <c r="R59" t="s">
+        <v>46</v>
+      </c>
+      <c r="S59">
+        <v>1980.0026488304138</v>
+      </c>
+      <c r="T59">
+        <v>1980.0137150287628</v>
+      </c>
+      <c r="U59">
+        <v>2.6347448660793304e6</v>
+      </c>
+      <c r="V59">
+        <v>0.05</v>
+      </c>
+      <c r="W59">
+        <v>1.2769778491988057</v>
+      </c>
+      <c r="X59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y59">
+        <v>-49760.0</v>
+      </c>
+      <c r="Z59">
+        <v>1.275933902168666</v>
+      </c>
+      <c r="AA59">
+        <v>796280.5567674637</v>
+      </c>
+      <c r="AB59">
+        <v>600.0008111000061</v>
+      </c>
+      <c r="AC59">
+        <v>600.0037579536438</v>
+      </c>
+      <c r="AD59">
+        <v>0.01</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF59">
+        <v>-49760.0</v>
+      </c>
+      <c r="AG59">
+        <v>1.2769294108511098</v>
+      </c>
+      <c r="AH59">
+        <v>806063.2952251434</v>
+      </c>
+      <c r="AI59">
+        <v>600.0005588531494</v>
+      </c>
+      <c r="AJ59">
+        <v>600.0032150745392</v>
+      </c>
+      <c r="AK59">
+        <v>0.02</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM59">
+        <v>-49760.0</v>
+      </c>
+      <c r="AN59">
+        <v>1.2769778491988057</v>
+      </c>
+      <c r="AO59">
+        <v>794776.1012954712</v>
+      </c>
+      <c r="AP59">
+        <v>600.0006418228149</v>
+      </c>
+      <c r="AQ59">
+        <v>600.0035829544067</v>
+      </c>
+      <c r="AR59">
+        <v>0.05</v>
+      </c>
+      <c r="AS59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
+      <c r="A60">
+        <v>627</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>0.75</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="H60">
+        <v>30</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60">
+        <v>-615001.0</v>
+      </c>
+      <c r="M60">
+        <v>1.0533202547050984</v>
+      </c>
+      <c r="N60">
+        <v>224677.35347366333</v>
+      </c>
+      <c r="O60">
+        <v>180.00079488754272</v>
+      </c>
+      <c r="P60">
+        <v>180.0035741329193</v>
+      </c>
+      <c r="Q60">
+        <v>0.005</v>
+      </c>
+      <c r="R60" t="s">
+        <v>46</v>
+      </c>
+      <c r="S60">
+        <v>1980.0026321411133</v>
+      </c>
+      <c r="T60">
+        <v>1980.013622045517</v>
+      </c>
+      <c r="U60">
+        <v>2.5654043854751587e6</v>
+      </c>
+      <c r="V60">
+        <v>0.05</v>
+      </c>
+      <c r="W60">
+        <v>0.09572347247130447</v>
+      </c>
+      <c r="X60" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y60">
+        <v>-65446.0</v>
+      </c>
+      <c r="Z60">
+        <v>1.4985874147963854</v>
+      </c>
+      <c r="AA60">
+        <v>788750.1387796402</v>
+      </c>
+      <c r="AB60">
+        <v>600.000678062439</v>
+      </c>
+      <c r="AC60">
+        <v>600.003457069397</v>
+      </c>
+      <c r="AD60">
+        <v>0.01</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF60">
+        <v>24252.0</v>
+      </c>
+      <c r="AG60">
+        <v>0.34604338045436617</v>
+      </c>
+      <c r="AH60">
+        <v>775615.7133598328</v>
+      </c>
+      <c r="AI60">
+        <v>600.0006020069122</v>
+      </c>
+      <c r="AJ60">
+        <v>600.0036618709564</v>
+      </c>
+      <c r="AK60">
+        <v>0.02</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM60">
+        <v>29775.0</v>
+      </c>
+      <c r="AN60">
+        <v>0.09572347247130447</v>
+      </c>
+      <c r="AO60">
+        <v>776361.1798620224</v>
+      </c>
+      <c r="AP60">
+        <v>600.0005571842194</v>
+      </c>
+      <c r="AQ60">
+        <v>600.0029289722443</v>
+      </c>
+      <c r="AR60">
+        <v>0.05</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
+      <c r="A61">
+        <v>630</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>0.75</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61">
+        <v>-124700.0</v>
+      </c>
+      <c r="M61">
+        <v>1.1110851243249449</v>
+      </c>
+      <c r="N61">
+        <v>234548.62023735046</v>
+      </c>
+      <c r="O61">
+        <v>180.0006799697876</v>
+      </c>
+      <c r="P61">
+        <v>180.00326204299927</v>
+      </c>
+      <c r="Q61">
+        <v>0.005</v>
+      </c>
+      <c r="R61" t="s">
+        <v>46</v>
+      </c>
+      <c r="S61">
+        <v>1980.0028088092804</v>
+      </c>
+      <c r="T61">
+        <v>1980.0135293006897</v>
+      </c>
+      <c r="U61">
+        <v>2.6330374427757263e6</v>
+      </c>
+      <c r="V61">
+        <v>0.05</v>
+      </c>
+      <c r="W61">
+        <v>1.1090671253727833</v>
+      </c>
+      <c r="X61" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y61">
+        <v>-124700.0</v>
+      </c>
+      <c r="Z61">
+        <v>1.1090929945481047</v>
+      </c>
+      <c r="AA61">
+        <v>792465.040096283</v>
+      </c>
+      <c r="AB61">
+        <v>600.0007770061493</v>
+      </c>
+      <c r="AC61">
+        <v>600.0029640197754</v>
+      </c>
+      <c r="AD61">
+        <v>0.01</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF61">
+        <v>-124700.0</v>
+      </c>
+      <c r="AG61">
+        <v>1.109085388214091</v>
+      </c>
+      <c r="AH61">
+        <v>798314.138463974</v>
+      </c>
+      <c r="AI61">
+        <v>600.0007319450378</v>
+      </c>
+      <c r="AJ61">
+        <v>600.0038821697235</v>
+      </c>
+      <c r="AK61">
+        <v>0.02</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM61">
+        <v>-124700.0</v>
+      </c>
+      <c r="AN61">
+        <v>1.1090671253727833</v>
+      </c>
+      <c r="AO61">
+        <v>807709.6439781189</v>
+      </c>
+      <c r="AP61">
+        <v>600.0006198883057</v>
+      </c>
+      <c r="AQ61">
+        <v>600.0034210681915</v>
+      </c>
+      <c r="AR61">
+        <v>0.05</v>
+      </c>
+      <c r="AS61" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
